--- a/Assets/Data/test.xlsx
+++ b/Assets/Data/test.xlsx
@@ -437,7 +437,7 @@
   <dimension ref="A1:G63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -469,49 +469,49 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E3" t="s">
         <v>14</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F3" t="s">
         <v>15</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G3" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">

--- a/Assets/Data/test.xlsx
+++ b/Assets/Data/test.xlsx
@@ -77,7 +77,7 @@
     <t xml:space="preserve">王五</t>
   </si>
   <si>
-    <t xml:space="preserve">广东韶关市</t>
+    <t xml:space="preserve">特朗普</t>
   </si>
   <si>
     <t xml:space="preserve">张三</t>
@@ -86,7 +86,7 @@
     <t xml:space="preserve">飞洒发女</t>
   </si>
   <si>
-    <t xml:space="preserve">上升</t>
+    <t xml:space="preserve">杜美心</t>
   </si>
   <si>
     <t xml:space="preserve">飞洒噶</t>

--- a/Assets/Data/test.xlsx
+++ b/Assets/Data/test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="116">
   <si>
     <t xml:space="preserve">int</t>
   </si>
@@ -143,10 +143,7 @@
     <t xml:space="preserve">123归属感</t>
   </si>
   <si>
-    <t xml:space="preserve">"target.add_buff_when_a(1,9138,"&amp;MOD(J4,50)&amp;")#caster.add_buff(10000,15,900)"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"target.add_buff_when_a(1,9138,"&amp;MOD(L4,50)&amp;")#caster.add_buff(10000,15,900)"</t>
+    <t xml:space="preserve">"target.add_buff_when_a(1,9138,"&amp;MOD(J4,50)&amp;",1559,700)#caster.add_buff(10000,15,900)"</t>
   </si>
   <si>
     <t xml:space="preserve">李四</t>
@@ -170,10 +167,7 @@
     <t xml:space="preserve">特朗普</t>
   </si>
   <si>
-    <t xml:space="preserve">"add_buff_when_a(1,9138,"&amp;MOD(J6,50)&amp;")#add_buff(10000,15,900)"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"target.add_buff_when_a(1,9138,"&amp;MOD(L6,50)&amp;")#caster.add_buff(10000,15,900)"</t>
+    <t xml:space="preserve">target.add_hurt_when_a(,,)#caster.add_buff_when_a(,,,,)#target.add_hurt()#target.add_hurt()#target.add_hurt()#target.add_hurt()#target.add_hurt()</t>
   </si>
   <si>
     <t xml:space="preserve">张三</t>
@@ -194,12 +188,6 @@
     <t xml:space="preserve">707#707#707#707#711</t>
   </si>
   <si>
-    <t xml:space="preserve">"target.add_buff_when_a(1,9138,"&amp;MOD(J8,50)&amp;")#caster.add_buff(10000,15,900)"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"target.add_buff_when_a(1,9138,"&amp;MOD(L8,50)&amp;")#caster.add_buff(10000,15,900)"</t>
-  </si>
-  <si>
     <t xml:space="preserve">王五</t>
   </si>
   <si>
@@ -212,24 +200,12 @@
     <t xml:space="preserve">707#707#707#707#713</t>
   </si>
   <si>
-    <t xml:space="preserve">"target.add_buff_when_a(1,9138,"&amp;MOD(J10,50)&amp;")#caster.add_buff(10000,15,900)"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"target.add_buff_when_a(1,9138,"&amp;MOD(L10,50)&amp;")#caster.add_buff(10000,15,900)"</t>
-  </si>
-  <si>
     <t xml:space="preserve">707#707#707#707#714</t>
   </si>
   <si>
     <t xml:space="preserve">707#707#707#707#715</t>
   </si>
   <si>
-    <t xml:space="preserve">"target.add_buff_when_a(1,9138,"&amp;MOD(J12,50)&amp;")#caster.add_buff(10000,15,900)"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"target.add_buff_when_a(1,9138,"&amp;MOD(L12,50)&amp;")#caster.add_buff(10000,15,900)"</t>
-  </si>
-  <si>
     <t xml:space="preserve">1111法法111</t>
   </si>
   <si>
@@ -239,298 +215,148 @@
     <t xml:space="preserve">707#707#707#707#717</t>
   </si>
   <si>
-    <t xml:space="preserve">"target.add_buff_when_a(1,9138,"&amp;MOD(J14,50)&amp;")#caster.add_buff(10000,15,900)"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"target.add_buff_when_a(1,9138,"&amp;MOD(L14,50)&amp;")#caster.add_buff(10000,15,900)"</t>
-  </si>
-  <si>
     <t xml:space="preserve">707#707#707#707#718</t>
   </si>
   <si>
     <t xml:space="preserve">707#707#707#707#719</t>
   </si>
   <si>
-    <t xml:space="preserve">"target.add_buff_when_a(1,9138,"&amp;MOD(J16,50)&amp;")#caster.add_buff(10000,15,900)"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"target.add_buff_when_a(1,9138,"&amp;MOD(L16,50)&amp;")#caster.add_buff(10000,15,900)"</t>
-  </si>
-  <si>
     <t xml:space="preserve">707#707#707#707#720</t>
   </si>
   <si>
     <t xml:space="preserve">707#707#707#707#721</t>
   </si>
   <si>
-    <t xml:space="preserve">"target.add_buff_when_a(1,9138,"&amp;MOD(J18,50)&amp;")#caster.add_buff(10000,15,900)"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"target.add_buff_when_a(1,9138,"&amp;MOD(L18,50)&amp;")#caster.add_buff(10000,15,900)"</t>
-  </si>
-  <si>
     <t xml:space="preserve">707#707#707#707#722</t>
   </si>
   <si>
     <t xml:space="preserve">707#707#707#707#723</t>
   </si>
   <si>
-    <t xml:space="preserve">"target.add_buff_when_a(1,9138,"&amp;MOD(J20,50)&amp;")#caster.add_buff(10000,15,900)"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"target.add_buff_when_a(1,9138,"&amp;MOD(L20,50)&amp;")#caster.add_buff(10000,15,900)"</t>
-  </si>
-  <si>
     <t xml:space="preserve">707#707#707#707#724</t>
   </si>
   <si>
     <t xml:space="preserve">707#707#707#707#725</t>
   </si>
   <si>
-    <t xml:space="preserve">"target.add_buff_when_a(1,9138,"&amp;MOD(J22,50)&amp;")#caster.add_buff(10000,15,900)"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"target.add_buff_when_a(1,9138,"&amp;MOD(L22,50)&amp;")#caster.add_buff(10000,15,900)"</t>
-  </si>
-  <si>
     <t xml:space="preserve">707#707#707#707#726</t>
   </si>
   <si>
     <t xml:space="preserve">707#707#707#707#727</t>
   </si>
   <si>
-    <t xml:space="preserve">"target.add_buff_when_a(1,9138,"&amp;MOD(J24,50)&amp;")#caster.add_buff(10000,15,900)"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"target.add_buff_when_a(1,9138,"&amp;MOD(L24,50)&amp;")#caster.add_buff(10000,15,900)"</t>
-  </si>
-  <si>
     <t xml:space="preserve">707#707#707#707#728</t>
   </si>
   <si>
     <t xml:space="preserve">707#707#707#707#729</t>
   </si>
   <si>
-    <t xml:space="preserve">"target.add_buff_when_a(1,9138,"&amp;MOD(J26,50)&amp;")#caster.add_buff(10000,15,900)"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"target.add_buff_when_a(1,9138,"&amp;MOD(L26,50)&amp;")#caster.add_buff(10000,15,900)"</t>
-  </si>
-  <si>
     <t xml:space="preserve">707#707#707#707#730</t>
   </si>
   <si>
     <t xml:space="preserve">707#707#707#707#731</t>
   </si>
   <si>
-    <t xml:space="preserve">"target.add_buff_when_a(1,9138,"&amp;MOD(J28,50)&amp;")#caster.add_buff(10000,15,900)"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"target.add_buff_when_a(1,9138,"&amp;MOD(L28,50)&amp;")#caster.add_buff(10000,15,900)"</t>
-  </si>
-  <si>
     <t xml:space="preserve">707#707#707#707#732</t>
   </si>
   <si>
     <t xml:space="preserve">707#707#707#707#733</t>
   </si>
   <si>
-    <t xml:space="preserve">"target.add_buff_when_a(1,9138,"&amp;MOD(J30,50)&amp;")#caster.add_buff(10000,15,900)"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"target.add_buff_when_a(1,9138,"&amp;MOD(L30,50)&amp;")#caster.add_buff(10000,15,900)"</t>
-  </si>
-  <si>
     <t xml:space="preserve">707#707#707#707#734</t>
   </si>
   <si>
     <t xml:space="preserve">707#707#707#707#735</t>
   </si>
   <si>
-    <t xml:space="preserve">"target.add_buff_when_a(1,9138,"&amp;MOD(J32,50)&amp;")#caster.add_buff(10000,15,900)"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"target.add_buff_when_a(1,9138,"&amp;MOD(L32,50)&amp;")#caster.add_buff(10000,15,900)"</t>
-  </si>
-  <si>
     <t xml:space="preserve">707#707#707#707#736</t>
   </si>
   <si>
     <t xml:space="preserve">707#707#707#707#737</t>
   </si>
   <si>
-    <t xml:space="preserve">"target.add_buff_when_a(1,9138,"&amp;MOD(J34,50)&amp;")#caster.add_buff(10000,15,900)"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"target.add_buff_when_a(1,9138,"&amp;MOD(L34,50)&amp;")#caster.add_buff(10000,15,900)"</t>
-  </si>
-  <si>
     <t xml:space="preserve">707#707#707#707#738</t>
   </si>
   <si>
     <t xml:space="preserve">707#707#707#707#739</t>
   </si>
   <si>
-    <t xml:space="preserve">"target.add_buff_when_a(1,9138,"&amp;MOD(J36,50)&amp;")#caster.add_buff(10000,15,900)"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"target.add_buff_when_a(1,9138,"&amp;MOD(L36,50)&amp;")#caster.add_buff(10000,15,900)"</t>
-  </si>
-  <si>
     <t xml:space="preserve">707#707#707#707#740</t>
   </si>
   <si>
     <t xml:space="preserve">707#707#707#707#741</t>
   </si>
   <si>
-    <t xml:space="preserve">"target.add_buff_when_a(1,9138,"&amp;MOD(J38,50)&amp;")#caster.add_buff(10000,15,900)"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"target.add_buff_when_a(1,9138,"&amp;MOD(L38,50)&amp;")#caster.add_buff(10000,15,900)"</t>
-  </si>
-  <si>
     <t xml:space="preserve">707#707#707#707#742</t>
   </si>
   <si>
     <t xml:space="preserve">707#707#707#707#743</t>
   </si>
   <si>
-    <t xml:space="preserve">"target.add_buff_when_a(1,9138,"&amp;MOD(J40,50)&amp;")#caster.add_buff(10000,15,900)"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"target.add_buff_when_a(1,9138,"&amp;MOD(L40,50)&amp;")#caster.add_buff(10000,15,900)"</t>
-  </si>
-  <si>
     <t xml:space="preserve">707#707#707#707#744</t>
   </si>
   <si>
     <t xml:space="preserve">707#707#707#707#745</t>
   </si>
   <si>
-    <t xml:space="preserve">"target.add_buff_when_a(1,9138,"&amp;MOD(J42,50)&amp;")#caster.add_buff(10000,15,900)"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"target.add_buff_when_a(1,9138,"&amp;MOD(L42,50)&amp;")#caster.add_buff(10000,15,900)"</t>
-  </si>
-  <si>
     <t xml:space="preserve">707#707#707#707#746</t>
   </si>
   <si>
     <t xml:space="preserve">707#707#707#707#747</t>
   </si>
   <si>
-    <t xml:space="preserve">"target.add_buff_when_a(1,9138,"&amp;MOD(J44,50)&amp;")#caster.add_buff(10000,15,900)"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"target.add_buff_when_a(1,9138,"&amp;MOD(L44,50)&amp;")#caster.add_buff(10000,15,900)"</t>
-  </si>
-  <si>
     <t xml:space="preserve">707#707#707#707#748</t>
   </si>
   <si>
     <t xml:space="preserve">707#707#707#707#749</t>
   </si>
   <si>
-    <t xml:space="preserve">"target.add_buff_when_a(1,9138,"&amp;MOD(J46,50)&amp;")#caster.add_buff(10000,15,900)"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"target.add_buff_when_a(1,9138,"&amp;MOD(L46,50)&amp;")#caster.add_buff(10000,15,900)"</t>
-  </si>
-  <si>
     <t xml:space="preserve">707#707#707#707#750</t>
   </si>
   <si>
     <t xml:space="preserve">707#707#707#707#751</t>
   </si>
   <si>
-    <t xml:space="preserve">"target.add_buff_when_a(1,9138,"&amp;MOD(J48,50)&amp;")#caster.add_buff(10000,15,900)"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"target.add_buff_when_a(1,9138,"&amp;MOD(L48,50)&amp;")#caster.add_buff(10000,15,900)"</t>
-  </si>
-  <si>
     <t xml:space="preserve">707#707#707#707#752</t>
   </si>
   <si>
     <t xml:space="preserve">707#707#707#707#753</t>
   </si>
   <si>
-    <t xml:space="preserve">"target.add_buff_when_a(1,9138,"&amp;MOD(J50,50)&amp;")#caster.add_buff(10000,15,900)"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"target.add_buff_when_a(1,9138,"&amp;MOD(L50,50)&amp;")#caster.add_buff(10000,15,900)"</t>
-  </si>
-  <si>
     <t xml:space="preserve">707#707#707#707#754</t>
   </si>
   <si>
     <t xml:space="preserve">707#707#707#707#755</t>
   </si>
   <si>
-    <t xml:space="preserve">"target.add_buff_when_a(1,9138,"&amp;MOD(J52,50)&amp;")#caster.add_buff(10000,15,900)"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"target.add_buff_when_a(1,9138,"&amp;MOD(L52,50)&amp;")#caster.add_buff(10000,15,900)"</t>
-  </si>
-  <si>
     <t xml:space="preserve">707#707#707#707#756</t>
   </si>
   <si>
     <t xml:space="preserve">707#707#707#707#757</t>
   </si>
   <si>
-    <t xml:space="preserve">"target.add_buff_when_a(1,9138,"&amp;MOD(J54,50)&amp;")#caster.add_buff(10000,15,900)"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"target.add_buff_when_a(1,9138,"&amp;MOD(L54,50)&amp;")#caster.add_buff(10000,15,900)"</t>
-  </si>
-  <si>
     <t xml:space="preserve">707#707#707#707#758</t>
   </si>
   <si>
     <t xml:space="preserve">707#707#707#707#759</t>
   </si>
   <si>
-    <t xml:space="preserve">"target.add_buff_when_a(1,9138,"&amp;MOD(J56,50)&amp;")#caster.add_buff(10000,15,900)"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"target.add_buff_when_a(1,9138,"&amp;MOD(L56,50)&amp;")#caster.add_buff(10000,15,900)"</t>
-  </si>
-  <si>
     <t xml:space="preserve">707#707#707#707#760</t>
   </si>
   <si>
     <t xml:space="preserve">707#707#707#707#761</t>
   </si>
   <si>
-    <t xml:space="preserve">"target.add_buff_when_a(1,9138,"&amp;MOD(J58,50)&amp;")#caster.add_buff(10000,15,900)"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"target.add_buff_when_a(1,9138,"&amp;MOD(L58,50)&amp;")#caster.add_buff(10000,15,900)"</t>
-  </si>
-  <si>
     <t xml:space="preserve">707#707#707#707#762</t>
   </si>
   <si>
     <t xml:space="preserve">707#707#707#707#763</t>
   </si>
   <si>
-    <t xml:space="preserve">"target.add_buff_when_a(1,9138,"&amp;MOD(J60,50)&amp;")#caster.add_buff(10000,15,900)"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"target.add_buff_when_a(1,9138,"&amp;MOD(L60,50)&amp;")#caster.add_buff(10000,15,900)"</t>
-  </si>
-  <si>
     <t xml:space="preserve">707#707#707#707#764</t>
   </si>
   <si>
     <t xml:space="preserve">707#707#707#707#765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"target.add_buff_when_a(1,9138,"&amp;MOD(J62,50)&amp;")#caster.add_buff(10000,15,900)"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"target.add_buff_when_a(1,9138,"&amp;MOD(L62,50)&amp;")#caster.add_buff(10000,15,900)"</t>
   </si>
   <si>
     <t xml:space="preserve">707#707#707#707#766</t>
@@ -794,7 +620,7 @@
         <v>1</v>
       </c>
       <c r="M4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N4">
         <v>456</v>
@@ -820,10 +646,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D5">
         <v>2222222</v>
@@ -835,25 +661,25 @@
         <v>40</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H5">
         <v>2</v>
       </c>
       <c r="I5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J5">
         <v>456</v>
       </c>
       <c r="K5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L5">
         <v>2</v>
       </c>
       <c r="M5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N5">
         <v>456</v>
@@ -865,7 +691,7 @@
         <v>2</v>
       </c>
       <c r="Q5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="R5">
         <v>456</v>
@@ -879,10 +705,10 @@
         <v>100</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D6">
         <v>3333333</v>
@@ -894,25 +720,25 @@
         <v>40</v>
       </c>
       <c r="G6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H6">
         <v>3</v>
       </c>
       <c r="I6" t="s">
+        <v>50</v>
+      </c>
+      <c r="J6">
+        <v>456</v>
+      </c>
+      <c r="K6" t="s">
         <v>51</v>
-      </c>
-      <c r="J6">
-        <v>456</v>
-      </c>
-      <c r="K6" t="s">
-        <v>52</v>
       </c>
       <c r="L6">
         <v>3</v>
       </c>
       <c r="M6" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="N6">
         <v>456</v>
@@ -924,7 +750,7 @@
         <v>3</v>
       </c>
       <c r="Q6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="R6">
         <v>456</v>
@@ -938,13 +764,13 @@
         <v>200</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -953,25 +779,25 @@
         <v>40</v>
       </c>
       <c r="G7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H7">
         <v>4</v>
       </c>
       <c r="I7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J7">
         <v>456</v>
       </c>
       <c r="K7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L7">
         <v>4</v>
       </c>
       <c r="M7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N7">
         <v>456</v>
@@ -983,7 +809,7 @@
         <v>4</v>
       </c>
       <c r="Q7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="R7">
         <v>456</v>
@@ -997,13 +823,13 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -1012,7 +838,7 @@
         <v>40</v>
       </c>
       <c r="G8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H8">
         <v>5</v>
@@ -1024,13 +850,13 @@
         <v>456</v>
       </c>
       <c r="K8" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="L8">
         <v>5</v>
       </c>
       <c r="M8" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="N8">
         <v>456</v>
@@ -1056,13 +882,13 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C9" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D9" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -1071,7 +897,7 @@
         <v>40</v>
       </c>
       <c r="G9" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H9">
         <v>6</v>
@@ -1083,13 +909,13 @@
         <v>456</v>
       </c>
       <c r="K9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L9">
         <v>6</v>
       </c>
       <c r="M9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N9">
         <v>456</v>
@@ -1115,10 +941,10 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D10">
         <v>7777777</v>
@@ -1130,7 +956,7 @@
         <v>40</v>
       </c>
       <c r="G10" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="H10">
         <v>7</v>
@@ -1142,13 +968,13 @@
         <v>456</v>
       </c>
       <c r="K10" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="L10">
         <v>7</v>
       </c>
       <c r="M10" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="N10">
         <v>456</v>
@@ -1174,10 +1000,10 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D11">
         <v>8888888</v>
@@ -1189,7 +1015,7 @@
         <v>40</v>
       </c>
       <c r="G11" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H11">
         <v>8</v>
@@ -1201,13 +1027,13 @@
         <v>456</v>
       </c>
       <c r="K11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L11">
         <v>8</v>
       </c>
       <c r="M11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N11">
         <v>456</v>
@@ -1233,10 +1059,10 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C12" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D12">
         <v>9999999</v>
@@ -1248,7 +1074,7 @@
         <v>40</v>
       </c>
       <c r="G12" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="H12">
         <v>9</v>
@@ -1260,13 +1086,13 @@
         <v>456</v>
       </c>
       <c r="K12" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="L12">
         <v>9</v>
       </c>
       <c r="M12" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="N12">
         <v>456</v>
@@ -1292,13 +1118,13 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D13" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1307,7 +1133,7 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="H13">
         <v>10</v>
@@ -1319,13 +1145,13 @@
         <v>456</v>
       </c>
       <c r="K13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L13">
         <v>10</v>
       </c>
       <c r="M13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N13">
         <v>456</v>
@@ -1351,10 +1177,10 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D14">
         <v>2222222</v>
@@ -1366,7 +1192,7 @@
         <v>40</v>
       </c>
       <c r="G14" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="H14">
         <v>11</v>
@@ -1378,13 +1204,13 @@
         <v>456</v>
       </c>
       <c r="K14" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="L14">
         <v>11</v>
       </c>
       <c r="M14" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="N14">
         <v>456</v>
@@ -1410,10 +1236,10 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C15" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D15">
         <v>3333333</v>
@@ -1425,7 +1251,7 @@
         <v>40</v>
       </c>
       <c r="G15" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="H15">
         <v>12</v>
@@ -1437,13 +1263,13 @@
         <v>456</v>
       </c>
       <c r="K15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L15">
         <v>12</v>
       </c>
       <c r="M15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N15">
         <v>456</v>
@@ -1469,10 +1295,10 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D16">
         <v>4444444</v>
@@ -1484,7 +1310,7 @@
         <v>40</v>
       </c>
       <c r="G16" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="H16">
         <v>13</v>
@@ -1496,13 +1322,13 @@
         <v>456</v>
       </c>
       <c r="K16" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="L16">
         <v>13</v>
       </c>
       <c r="M16" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="N16">
         <v>456</v>
@@ -1528,10 +1354,10 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D17">
         <v>5555555</v>
@@ -1543,7 +1369,7 @@
         <v>40</v>
       </c>
       <c r="G17" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="H17">
         <v>14</v>
@@ -1555,13 +1381,13 @@
         <v>456</v>
       </c>
       <c r="K17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L17">
         <v>14</v>
       </c>
       <c r="M17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N17">
         <v>456</v>
@@ -1587,10 +1413,10 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C18" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D18">
         <v>6666666</v>
@@ -1602,7 +1428,7 @@
         <v>40</v>
       </c>
       <c r="G18" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="H18">
         <v>15</v>
@@ -1614,13 +1440,13 @@
         <v>456</v>
       </c>
       <c r="K18" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="L18">
         <v>15</v>
       </c>
       <c r="M18" t="s">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="N18">
         <v>456</v>
@@ -1646,10 +1472,10 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D19">
         <v>7777777</v>
@@ -1661,7 +1487,7 @@
         <v>40</v>
       </c>
       <c r="G19" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="H19">
         <v>16</v>
@@ -1673,13 +1499,13 @@
         <v>456</v>
       </c>
       <c r="K19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L19">
         <v>16</v>
       </c>
       <c r="M19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N19">
         <v>456</v>
@@ -1705,10 +1531,10 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D20">
         <v>8888888</v>
@@ -1720,7 +1546,7 @@
         <v>40</v>
       </c>
       <c r="G20" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="H20">
         <v>17</v>
@@ -1732,13 +1558,13 @@
         <v>456</v>
       </c>
       <c r="K20" t="s">
-        <v>87</v>
+        <v>43</v>
       </c>
       <c r="L20">
         <v>17</v>
       </c>
       <c r="M20" t="s">
-        <v>88</v>
+        <v>43</v>
       </c>
       <c r="N20">
         <v>456</v>
@@ -1764,10 +1590,10 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C21" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D21">
         <v>9999999</v>
@@ -1779,7 +1605,7 @@
         <v>40</v>
       </c>
       <c r="G21" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="H21">
         <v>18</v>
@@ -1791,13 +1617,13 @@
         <v>456</v>
       </c>
       <c r="K21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L21">
         <v>18</v>
       </c>
       <c r="M21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N21">
         <v>456</v>
@@ -1823,10 +1649,10 @@
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C22" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D22">
         <v>1111111</v>
@@ -1838,7 +1664,7 @@
         <v>40</v>
       </c>
       <c r="G22" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="H22">
         <v>19</v>
@@ -1850,13 +1676,13 @@
         <v>456</v>
       </c>
       <c r="K22" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="L22">
         <v>19</v>
       </c>
       <c r="M22" t="s">
-        <v>92</v>
+        <v>43</v>
       </c>
       <c r="N22">
         <v>456</v>
@@ -1882,10 +1708,10 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D23">
         <v>2222222</v>
@@ -1897,7 +1723,7 @@
         <v>40</v>
       </c>
       <c r="G23" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="H23">
         <v>20</v>
@@ -1909,13 +1735,13 @@
         <v>456</v>
       </c>
       <c r="K23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L23">
         <v>20</v>
       </c>
       <c r="M23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N23">
         <v>456</v>
@@ -1941,10 +1767,10 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C24" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D24">
         <v>3333333</v>
@@ -1956,7 +1782,7 @@
         <v>40</v>
       </c>
       <c r="G24" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="H24">
         <v>21</v>
@@ -1968,13 +1794,13 @@
         <v>456</v>
       </c>
       <c r="K24" t="s">
-        <v>95</v>
+        <v>43</v>
       </c>
       <c r="L24">
         <v>21</v>
       </c>
       <c r="M24" t="s">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="N24">
         <v>456</v>
@@ -2000,10 +1826,10 @@
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D25">
         <v>4444444</v>
@@ -2015,7 +1841,7 @@
         <v>40</v>
       </c>
       <c r="G25" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="H25">
         <v>22</v>
@@ -2027,13 +1853,13 @@
         <v>456</v>
       </c>
       <c r="K25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L25">
         <v>22</v>
       </c>
       <c r="M25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N25">
         <v>456</v>
@@ -2059,10 +1885,10 @@
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C26" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D26">
         <v>5555555</v>
@@ -2074,7 +1900,7 @@
         <v>40</v>
       </c>
       <c r="G26" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="H26">
         <v>23</v>
@@ -2086,13 +1912,13 @@
         <v>456</v>
       </c>
       <c r="K26" t="s">
-        <v>99</v>
+        <v>43</v>
       </c>
       <c r="L26">
         <v>23</v>
       </c>
       <c r="M26" t="s">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="N26">
         <v>456</v>
@@ -2118,10 +1944,10 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D27">
         <v>6666666</v>
@@ -2133,7 +1959,7 @@
         <v>40</v>
       </c>
       <c r="G27" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="H27">
         <v>24</v>
@@ -2145,13 +1971,13 @@
         <v>456</v>
       </c>
       <c r="K27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L27">
         <v>24</v>
       </c>
       <c r="M27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N27">
         <v>456</v>
@@ -2177,10 +2003,10 @@
         <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D28">
         <v>7777777</v>
@@ -2192,7 +2018,7 @@
         <v>40</v>
       </c>
       <c r="G28" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="H28">
         <v>25</v>
@@ -2204,13 +2030,13 @@
         <v>456</v>
       </c>
       <c r="K28" t="s">
-        <v>103</v>
+        <v>43</v>
       </c>
       <c r="L28">
         <v>25</v>
       </c>
       <c r="M28" t="s">
-        <v>104</v>
+        <v>43</v>
       </c>
       <c r="N28">
         <v>456</v>
@@ -2236,10 +2062,10 @@
         <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C29" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D29">
         <v>8888888</v>
@@ -2251,7 +2077,7 @@
         <v>40</v>
       </c>
       <c r="G29" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="H29">
         <v>26</v>
@@ -2263,13 +2089,13 @@
         <v>456</v>
       </c>
       <c r="K29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L29">
         <v>26</v>
       </c>
       <c r="M29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N29">
         <v>456</v>
@@ -2295,10 +2121,10 @@
         <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D30">
         <v>9999999</v>
@@ -2310,7 +2136,7 @@
         <v>40</v>
       </c>
       <c r="G30" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="H30">
         <v>27</v>
@@ -2322,13 +2148,13 @@
         <v>456</v>
       </c>
       <c r="K30" t="s">
-        <v>107</v>
+        <v>43</v>
       </c>
       <c r="L30">
         <v>27</v>
       </c>
       <c r="M30" t="s">
-        <v>108</v>
+        <v>43</v>
       </c>
       <c r="N30">
         <v>456</v>
@@ -2354,10 +2180,10 @@
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D31">
         <v>1111111</v>
@@ -2369,7 +2195,7 @@
         <v>40</v>
       </c>
       <c r="G31" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="H31">
         <v>28</v>
@@ -2381,13 +2207,13 @@
         <v>456</v>
       </c>
       <c r="K31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L31">
         <v>28</v>
       </c>
       <c r="M31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N31">
         <v>456</v>
@@ -2413,10 +2239,10 @@
         <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C32" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D32">
         <v>2222222</v>
@@ -2428,7 +2254,7 @@
         <v>40</v>
       </c>
       <c r="G32" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="H32">
         <v>29</v>
@@ -2440,13 +2266,13 @@
         <v>456</v>
       </c>
       <c r="K32" t="s">
-        <v>111</v>
+        <v>43</v>
       </c>
       <c r="L32">
         <v>29</v>
       </c>
       <c r="M32" t="s">
-        <v>112</v>
+        <v>43</v>
       </c>
       <c r="N32">
         <v>456</v>
@@ -2472,10 +2298,10 @@
         <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C33" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D33">
         <v>3333333</v>
@@ -2487,7 +2313,7 @@
         <v>40</v>
       </c>
       <c r="G33" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="H33">
         <v>30</v>
@@ -2499,13 +2325,13 @@
         <v>456</v>
       </c>
       <c r="K33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L33">
         <v>30</v>
       </c>
       <c r="M33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N33">
         <v>456</v>
@@ -2531,10 +2357,10 @@
         <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D34">
         <v>4444444</v>
@@ -2546,7 +2372,7 @@
         <v>40</v>
       </c>
       <c r="G34" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="H34">
         <v>31</v>
@@ -2558,13 +2384,13 @@
         <v>456</v>
       </c>
       <c r="K34" t="s">
-        <v>115</v>
+        <v>43</v>
       </c>
       <c r="L34">
         <v>31</v>
       </c>
       <c r="M34" t="s">
-        <v>116</v>
+        <v>43</v>
       </c>
       <c r="N34">
         <v>456</v>
@@ -2590,10 +2416,10 @@
         <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C35" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D35">
         <v>5555555</v>
@@ -2605,7 +2431,7 @@
         <v>40</v>
       </c>
       <c r="G35" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="H35">
         <v>32</v>
@@ -2617,13 +2443,13 @@
         <v>456</v>
       </c>
       <c r="K35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L35">
         <v>32</v>
       </c>
       <c r="M35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N35">
         <v>456</v>
@@ -2649,10 +2475,10 @@
         <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C36" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D36">
         <v>6666666</v>
@@ -2664,7 +2490,7 @@
         <v>40</v>
       </c>
       <c r="G36" t="s">
-        <v>118</v>
+        <v>88</v>
       </c>
       <c r="H36">
         <v>33</v>
@@ -2676,13 +2502,13 @@
         <v>456</v>
       </c>
       <c r="K36" t="s">
-        <v>119</v>
+        <v>43</v>
       </c>
       <c r="L36">
         <v>33</v>
       </c>
       <c r="M36" t="s">
-        <v>120</v>
+        <v>43</v>
       </c>
       <c r="N36">
         <v>456</v>
@@ -2708,10 +2534,10 @@
         <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D37">
         <v>7777777</v>
@@ -2723,7 +2549,7 @@
         <v>40</v>
       </c>
       <c r="G37" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="H37">
         <v>34</v>
@@ -2735,13 +2561,13 @@
         <v>456</v>
       </c>
       <c r="K37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L37">
         <v>34</v>
       </c>
       <c r="M37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N37">
         <v>456</v>
@@ -2767,10 +2593,10 @@
         <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C38" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D38">
         <v>8888888</v>
@@ -2782,7 +2608,7 @@
         <v>40</v>
       </c>
       <c r="G38" t="s">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="H38">
         <v>35</v>
@@ -2794,13 +2620,13 @@
         <v>456</v>
       </c>
       <c r="K38" t="s">
-        <v>123</v>
+        <v>43</v>
       </c>
       <c r="L38">
         <v>35</v>
       </c>
       <c r="M38" t="s">
-        <v>124</v>
+        <v>43</v>
       </c>
       <c r="N38">
         <v>456</v>
@@ -2826,10 +2652,10 @@
         <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C39" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D39">
         <v>9999999</v>
@@ -2841,7 +2667,7 @@
         <v>40</v>
       </c>
       <c r="G39" t="s">
-        <v>125</v>
+        <v>91</v>
       </c>
       <c r="H39">
         <v>36</v>
@@ -2853,13 +2679,13 @@
         <v>456</v>
       </c>
       <c r="K39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L39">
         <v>36</v>
       </c>
       <c r="M39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N39">
         <v>456</v>
@@ -2885,10 +2711,10 @@
         <v>37</v>
       </c>
       <c r="B40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D40">
         <v>1111111</v>
@@ -2900,7 +2726,7 @@
         <v>40</v>
       </c>
       <c r="G40" t="s">
-        <v>126</v>
+        <v>92</v>
       </c>
       <c r="H40">
         <v>37</v>
@@ -2912,13 +2738,13 @@
         <v>456</v>
       </c>
       <c r="K40" t="s">
-        <v>127</v>
+        <v>43</v>
       </c>
       <c r="L40">
         <v>37</v>
       </c>
       <c r="M40" t="s">
-        <v>128</v>
+        <v>43</v>
       </c>
       <c r="N40">
         <v>456</v>
@@ -2944,10 +2770,10 @@
         <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C41" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D41">
         <v>2222222</v>
@@ -2959,7 +2785,7 @@
         <v>40</v>
       </c>
       <c r="G41" t="s">
-        <v>129</v>
+        <v>93</v>
       </c>
       <c r="H41">
         <v>38</v>
@@ -2971,13 +2797,13 @@
         <v>456</v>
       </c>
       <c r="K41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L41">
         <v>38</v>
       </c>
       <c r="M41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N41">
         <v>456</v>
@@ -3003,10 +2829,10 @@
         <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C42" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D42">
         <v>3333333</v>
@@ -3018,7 +2844,7 @@
         <v>40</v>
       </c>
       <c r="G42" t="s">
-        <v>130</v>
+        <v>94</v>
       </c>
       <c r="H42">
         <v>39</v>
@@ -3030,13 +2856,13 @@
         <v>456</v>
       </c>
       <c r="K42" t="s">
-        <v>131</v>
+        <v>43</v>
       </c>
       <c r="L42">
         <v>39</v>
       </c>
       <c r="M42" t="s">
-        <v>132</v>
+        <v>43</v>
       </c>
       <c r="N42">
         <v>456</v>
@@ -3062,10 +2888,10 @@
         <v>40</v>
       </c>
       <c r="B43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D43">
         <v>4444444</v>
@@ -3077,7 +2903,7 @@
         <v>40</v>
       </c>
       <c r="G43" t="s">
-        <v>133</v>
+        <v>95</v>
       </c>
       <c r="H43">
         <v>40</v>
@@ -3089,13 +2915,13 @@
         <v>456</v>
       </c>
       <c r="K43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L43">
         <v>40</v>
       </c>
       <c r="M43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N43">
         <v>456</v>
@@ -3121,10 +2947,10 @@
         <v>41</v>
       </c>
       <c r="B44" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C44" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D44">
         <v>5555555</v>
@@ -3136,7 +2962,7 @@
         <v>40</v>
       </c>
       <c r="G44" t="s">
-        <v>134</v>
+        <v>96</v>
       </c>
       <c r="H44">
         <v>41</v>
@@ -3148,13 +2974,13 @@
         <v>456</v>
       </c>
       <c r="K44" t="s">
-        <v>135</v>
+        <v>43</v>
       </c>
       <c r="L44">
         <v>41</v>
       </c>
       <c r="M44" t="s">
-        <v>136</v>
+        <v>43</v>
       </c>
       <c r="N44">
         <v>456</v>
@@ -3180,10 +3006,10 @@
         <v>42</v>
       </c>
       <c r="B45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D45">
         <v>6666666</v>
@@ -3195,7 +3021,7 @@
         <v>40</v>
       </c>
       <c r="G45" t="s">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="H45">
         <v>42</v>
@@ -3207,13 +3033,13 @@
         <v>456</v>
       </c>
       <c r="K45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L45">
         <v>42</v>
       </c>
       <c r="M45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N45">
         <v>456</v>
@@ -3239,10 +3065,10 @@
         <v>43</v>
       </c>
       <c r="B46" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C46" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D46">
         <v>7777777</v>
@@ -3254,7 +3080,7 @@
         <v>40</v>
       </c>
       <c r="G46" t="s">
-        <v>138</v>
+        <v>98</v>
       </c>
       <c r="H46">
         <v>43</v>
@@ -3266,13 +3092,13 @@
         <v>456</v>
       </c>
       <c r="K46" t="s">
-        <v>139</v>
+        <v>43</v>
       </c>
       <c r="L46">
         <v>43</v>
       </c>
       <c r="M46" t="s">
-        <v>140</v>
+        <v>43</v>
       </c>
       <c r="N46">
         <v>456</v>
@@ -3298,10 +3124,10 @@
         <v>44</v>
       </c>
       <c r="B47" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C47" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D47">
         <v>8888888</v>
@@ -3313,7 +3139,7 @@
         <v>40</v>
       </c>
       <c r="G47" t="s">
-        <v>141</v>
+        <v>99</v>
       </c>
       <c r="H47">
         <v>44</v>
@@ -3325,13 +3151,13 @@
         <v>456</v>
       </c>
       <c r="K47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L47">
         <v>44</v>
       </c>
       <c r="M47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N47">
         <v>456</v>
@@ -3357,10 +3183,10 @@
         <v>45</v>
       </c>
       <c r="B48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D48">
         <v>9999999</v>
@@ -3372,7 +3198,7 @@
         <v>40</v>
       </c>
       <c r="G48" t="s">
-        <v>142</v>
+        <v>100</v>
       </c>
       <c r="H48">
         <v>45</v>
@@ -3384,13 +3210,13 @@
         <v>456</v>
       </c>
       <c r="K48" t="s">
-        <v>143</v>
+        <v>43</v>
       </c>
       <c r="L48">
         <v>45</v>
       </c>
       <c r="M48" t="s">
-        <v>144</v>
+        <v>43</v>
       </c>
       <c r="N48">
         <v>456</v>
@@ -3416,10 +3242,10 @@
         <v>46</v>
       </c>
       <c r="B49" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C49" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D49">
         <v>1111111</v>
@@ -3431,7 +3257,7 @@
         <v>40</v>
       </c>
       <c r="G49" t="s">
-        <v>145</v>
+        <v>101</v>
       </c>
       <c r="H49">
         <v>46</v>
@@ -3443,13 +3269,13 @@
         <v>456</v>
       </c>
       <c r="K49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L49">
         <v>46</v>
       </c>
       <c r="M49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N49">
         <v>456</v>
@@ -3475,10 +3301,10 @@
         <v>47</v>
       </c>
       <c r="B50" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C50" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D50">
         <v>2222222</v>
@@ -3490,7 +3316,7 @@
         <v>40</v>
       </c>
       <c r="G50" t="s">
-        <v>146</v>
+        <v>102</v>
       </c>
       <c r="H50">
         <v>47</v>
@@ -3502,13 +3328,13 @@
         <v>456</v>
       </c>
       <c r="K50" t="s">
-        <v>147</v>
+        <v>43</v>
       </c>
       <c r="L50">
         <v>47</v>
       </c>
       <c r="M50" t="s">
-        <v>148</v>
+        <v>43</v>
       </c>
       <c r="N50">
         <v>456</v>
@@ -3534,10 +3360,10 @@
         <v>48</v>
       </c>
       <c r="B51" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C51" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D51">
         <v>3333333</v>
@@ -3549,7 +3375,7 @@
         <v>40</v>
       </c>
       <c r="G51" t="s">
-        <v>149</v>
+        <v>103</v>
       </c>
       <c r="H51">
         <v>48</v>
@@ -3561,13 +3387,13 @@
         <v>456</v>
       </c>
       <c r="K51" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L51">
         <v>48</v>
       </c>
       <c r="M51" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N51">
         <v>456</v>
@@ -3593,10 +3419,10 @@
         <v>49</v>
       </c>
       <c r="B52" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C52" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D52">
         <v>4444444</v>
@@ -3608,7 +3434,7 @@
         <v>40</v>
       </c>
       <c r="G52" t="s">
-        <v>150</v>
+        <v>104</v>
       </c>
       <c r="H52">
         <v>49</v>
@@ -3620,13 +3446,13 @@
         <v>456</v>
       </c>
       <c r="K52" t="s">
-        <v>151</v>
+        <v>43</v>
       </c>
       <c r="L52">
         <v>49</v>
       </c>
       <c r="M52" t="s">
-        <v>152</v>
+        <v>43</v>
       </c>
       <c r="N52">
         <v>456</v>
@@ -3652,10 +3478,10 @@
         <v>50</v>
       </c>
       <c r="B53" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C53" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D53">
         <v>5555555</v>
@@ -3667,7 +3493,7 @@
         <v>40</v>
       </c>
       <c r="G53" t="s">
-        <v>153</v>
+        <v>105</v>
       </c>
       <c r="H53">
         <v>50</v>
@@ -3679,13 +3505,13 @@
         <v>456</v>
       </c>
       <c r="K53" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L53">
         <v>50</v>
       </c>
       <c r="M53" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N53">
         <v>456</v>
@@ -3711,10 +3537,10 @@
         <v>51</v>
       </c>
       <c r="B54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D54">
         <v>6666666</v>
@@ -3726,7 +3552,7 @@
         <v>40</v>
       </c>
       <c r="G54" t="s">
-        <v>154</v>
+        <v>106</v>
       </c>
       <c r="H54">
         <v>51</v>
@@ -3738,13 +3564,13 @@
         <v>456</v>
       </c>
       <c r="K54" t="s">
-        <v>155</v>
+        <v>43</v>
       </c>
       <c r="L54">
         <v>51</v>
       </c>
       <c r="M54" t="s">
-        <v>156</v>
+        <v>43</v>
       </c>
       <c r="N54">
         <v>456</v>
@@ -3770,10 +3596,10 @@
         <v>52</v>
       </c>
       <c r="B55" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C55" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D55">
         <v>7777777</v>
@@ -3785,7 +3611,7 @@
         <v>40</v>
       </c>
       <c r="G55" t="s">
-        <v>157</v>
+        <v>107</v>
       </c>
       <c r="H55">
         <v>52</v>
@@ -3797,13 +3623,13 @@
         <v>456</v>
       </c>
       <c r="K55" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L55">
         <v>52</v>
       </c>
       <c r="M55" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N55">
         <v>456</v>
@@ -3829,10 +3655,10 @@
         <v>53</v>
       </c>
       <c r="B56" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C56" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D56">
         <v>8888888</v>
@@ -3844,7 +3670,7 @@
         <v>40</v>
       </c>
       <c r="G56" t="s">
-        <v>158</v>
+        <v>108</v>
       </c>
       <c r="H56">
         <v>53</v>
@@ -3856,13 +3682,13 @@
         <v>456</v>
       </c>
       <c r="K56" t="s">
-        <v>159</v>
+        <v>43</v>
       </c>
       <c r="L56">
         <v>53</v>
       </c>
       <c r="M56" t="s">
-        <v>160</v>
+        <v>43</v>
       </c>
       <c r="N56">
         <v>456</v>
@@ -3888,10 +3714,10 @@
         <v>54</v>
       </c>
       <c r="B57" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C57" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D57">
         <v>9999999</v>
@@ -3903,7 +3729,7 @@
         <v>40</v>
       </c>
       <c r="G57" t="s">
-        <v>161</v>
+        <v>109</v>
       </c>
       <c r="H57">
         <v>54</v>
@@ -3915,13 +3741,13 @@
         <v>456</v>
       </c>
       <c r="K57" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L57">
         <v>54</v>
       </c>
       <c r="M57" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N57">
         <v>456</v>
@@ -3947,10 +3773,10 @@
         <v>55</v>
       </c>
       <c r="B58" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C58" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D58">
         <v>1111111</v>
@@ -3962,7 +3788,7 @@
         <v>40</v>
       </c>
       <c r="G58" t="s">
-        <v>162</v>
+        <v>110</v>
       </c>
       <c r="H58">
         <v>55</v>
@@ -3974,13 +3800,13 @@
         <v>456</v>
       </c>
       <c r="K58" t="s">
-        <v>163</v>
+        <v>43</v>
       </c>
       <c r="L58">
         <v>55</v>
       </c>
       <c r="M58" t="s">
-        <v>164</v>
+        <v>43</v>
       </c>
       <c r="N58">
         <v>456</v>
@@ -4006,10 +3832,10 @@
         <v>56</v>
       </c>
       <c r="B59" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C59" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D59">
         <v>2222222</v>
@@ -4021,7 +3847,7 @@
         <v>40</v>
       </c>
       <c r="G59" t="s">
-        <v>165</v>
+        <v>111</v>
       </c>
       <c r="H59">
         <v>56</v>
@@ -4033,13 +3859,13 @@
         <v>456</v>
       </c>
       <c r="K59" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L59">
         <v>56</v>
       </c>
       <c r="M59" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N59">
         <v>456</v>
@@ -4065,10 +3891,10 @@
         <v>57</v>
       </c>
       <c r="B60" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C60" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D60">
         <v>3333333</v>
@@ -4080,7 +3906,7 @@
         <v>40</v>
       </c>
       <c r="G60" t="s">
-        <v>166</v>
+        <v>112</v>
       </c>
       <c r="H60">
         <v>57</v>
@@ -4092,13 +3918,13 @@
         <v>456</v>
       </c>
       <c r="K60" t="s">
-        <v>167</v>
+        <v>43</v>
       </c>
       <c r="L60">
         <v>57</v>
       </c>
       <c r="M60" t="s">
-        <v>168</v>
+        <v>43</v>
       </c>
       <c r="N60">
         <v>456</v>
@@ -4124,10 +3950,10 @@
         <v>58</v>
       </c>
       <c r="B61" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C61" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D61">
         <v>4444444</v>
@@ -4139,7 +3965,7 @@
         <v>40</v>
       </c>
       <c r="G61" t="s">
-        <v>169</v>
+        <v>113</v>
       </c>
       <c r="H61">
         <v>58</v>
@@ -4151,13 +3977,13 @@
         <v>456</v>
       </c>
       <c r="K61" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L61">
         <v>58</v>
       </c>
       <c r="M61" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N61">
         <v>456</v>
@@ -4183,10 +4009,10 @@
         <v>59</v>
       </c>
       <c r="B62" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C62" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D62">
         <v>5555555</v>
@@ -4198,7 +4024,7 @@
         <v>40</v>
       </c>
       <c r="G62" t="s">
-        <v>170</v>
+        <v>114</v>
       </c>
       <c r="H62">
         <v>59</v>
@@ -4210,13 +4036,13 @@
         <v>456</v>
       </c>
       <c r="K62" t="s">
-        <v>171</v>
+        <v>43</v>
       </c>
       <c r="L62">
         <v>59</v>
       </c>
       <c r="M62" t="s">
-        <v>172</v>
+        <v>43</v>
       </c>
       <c r="N62">
         <v>456</v>
@@ -4242,10 +4068,10 @@
         <v>60</v>
       </c>
       <c r="B63" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C63" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D63">
         <v>6666666</v>
@@ -4257,7 +4083,7 @@
         <v>40</v>
       </c>
       <c r="G63" t="s">
-        <v>173</v>
+        <v>115</v>
       </c>
       <c r="H63">
         <v>60</v>
@@ -4269,13 +4095,13 @@
         <v>456</v>
       </c>
       <c r="K63" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L63">
         <v>60</v>
       </c>
       <c r="M63" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N63">
         <v>456</v>
